--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Lawniczak.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Lawniczak.xlsx
@@ -587,7 +587,11 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr"/>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>27.01.2025</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
@@ -598,7 +602,11 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr"/>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>27.01.2025</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>

--- a/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Lawniczak.xlsx
+++ b/Raw files GPS/Raw files GPS Zagłębie/wyniki_calosciowe_Lawniczak.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,12 +463,15 @@
           <t>Velocity_Bin</t>
         </is>
       </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Trening</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:31:25.95</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45687.521828125</v>
       </c>
       <c r="B2" t="n">
         <v>5700.7</v>
@@ -480,12 +487,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:42:42.35</t>
-        </is>
+      <c r="A3" s="2" t="n">
+        <v>45687.5296568287</v>
       </c>
       <c r="B3" t="n">
         <v>6377.1</v>
@@ -501,12 +511,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:43:03.95</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45687.52990682871</v>
       </c>
       <c r="B4" t="n">
         <v>6398.7</v>
@@ -522,12 +535,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:23:40.05</t>
-        </is>
+      <c r="A5" s="2" t="n">
+        <v>45687.51643576389</v>
       </c>
       <c r="B5" t="n">
         <v>5234.8</v>
@@ -543,12 +559,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:42:42.25</t>
-        </is>
+      <c r="A6" s="2" t="n">
+        <v>45687.52965567129</v>
       </c>
       <c r="B6" t="n">
         <v>6377</v>
@@ -564,12 +583,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>30.01.2025 12:43:03.85</t>
-        </is>
+      <c r="A7" s="2" t="n">
+        <v>45687.5299056713</v>
       </c>
       <c r="B7" t="n">
         <v>6398.6</v>
@@ -585,12 +607,15 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Gra</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>27.01.2025</t>
-        </is>
+      <c r="A8" s="2" t="n">
+        <v>45684</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="inlineStr"/>
@@ -600,12 +625,15 @@
           <t>10-15</t>
         </is>
       </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>27.01.2025</t>
-        </is>
+      <c r="A9" s="2" t="n">
+        <v>45684</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="inlineStr"/>
@@ -615,256 +643,621 @@
           <t>5-10</t>
         </is>
       </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:27:51.85</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>786.8</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.82</v>
-      </c>
-      <c r="D10" t="n">
-        <v>3.695932592664448</v>
-      </c>
+      <c r="A10" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B10" t="inlineStr"/>
+      <c r="C10" t="inlineStr"/>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>10-15</t>
         </is>
       </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:03:17.35</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
+      <c r="A11" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B11" t="inlineStr"/>
+      <c r="C11" t="inlineStr"/>
+      <c r="D11" t="inlineStr"/>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45685.64626446759</v>
+      </c>
+      <c r="B12" t="n">
+        <v>952.2</v>
+      </c>
+      <c r="C12" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D12" t="n">
+        <v>3.263509546007428</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45685.65125289352</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1383.2</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11.9</v>
+      </c>
+      <c r="D13" t="n">
+        <v>3.066205535616193</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45685.66516840277</v>
+      </c>
+      <c r="B14" t="n">
+        <v>2585.5</v>
+      </c>
+      <c r="C14" t="n">
+        <v>14.86</v>
+      </c>
+      <c r="D14" t="n">
+        <v>3.276531628199986</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45685.64626099537</v>
+      </c>
+      <c r="B15" t="n">
+        <v>951.9</v>
+      </c>
+      <c r="C15" t="n">
+        <v>9.49</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.115101371492657</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45685.6512505787</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1383</v>
+      </c>
+      <c r="C16" t="n">
+        <v>9.960000000000001</v>
+      </c>
+      <c r="D16" t="n">
+        <v>2.997194494519916</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45685.65518344907</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1722.8</v>
+      </c>
+      <c r="C17" t="n">
+        <v>9.26</v>
+      </c>
+      <c r="D17" t="n">
+        <v>2.782028470720563</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45685.66895081018</v>
+      </c>
+      <c r="B18" t="n">
         <v>2912.3</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C18" t="n">
         <v>12.08</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D18" t="n">
         <v>3.491810968944004</v>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:12:23.05</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45685.6752667824</v>
+      </c>
+      <c r="B19" t="n">
         <v>3458</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C19" t="n">
         <v>14.66</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D19" t="n">
         <v>3.470280102321081</v>
       </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:27:51.55</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>786.5</v>
-      </c>
-      <c r="C13" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="D13" t="n">
-        <v>3.135185377938407</v>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>28.01.2025 15:30:36.95</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>951.9</v>
-      </c>
-      <c r="C14" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="D14" t="n">
-        <v>3.115101371492657</v>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>28.01.2025 16:03:17.15</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45685.67777256944</v>
+      </c>
+      <c r="B20" t="n">
+        <v>3674.5</v>
+      </c>
+      <c r="C20" t="n">
+        <v>11.96</v>
+      </c>
+      <c r="D20" t="n">
+        <v>3.452535833631243</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45685.66812326389</v>
+      </c>
+      <c r="B21" t="n">
+        <v>2840.8</v>
+      </c>
+      <c r="C21" t="n">
+        <v>9.67</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.932180132184711</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45685.66894849537</v>
+      </c>
+      <c r="B22" t="n">
         <v>2912.1</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C22" t="n">
         <v>9.1</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D22" t="n">
         <v>3.239083426339286</v>
       </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:17:54.44</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>4322.3</v>
-      </c>
-      <c r="C16" t="n">
-        <v>10.56</v>
-      </c>
-      <c r="D16" t="n">
-        <v>3.419655697686333</v>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:18:12.74</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>4340.6</v>
-      </c>
-      <c r="C17" t="n">
-        <v>11.68</v>
-      </c>
-      <c r="D17" t="n">
-        <v>3.36901889528547</v>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:18:31.54</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4359.4</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="D18" t="n">
-        <v>3.480012450899397</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>10-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:17:54.34</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4322.2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D19" t="n">
-        <v>3.329791239329749</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:18:12.54</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>4340.4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D20" t="n">
-        <v>3.261562892368861</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>5-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>29.01.2025 12:18:31.44</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>4359.3</v>
-      </c>
-      <c r="C21" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="D21" t="n">
-        <v>3.386442184448243</v>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5-10</t>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45685.67777025463</v>
+      </c>
+      <c r="B23" t="n">
+        <v>3674.3</v>
+      </c>
+      <c r="C23" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="D23" t="n">
+        <v>2.997845990317207</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45686.47776203704</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1326.5</v>
+      </c>
+      <c r="C24" t="n">
+        <v>10.07</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.3236628323793413</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45686.47777361111</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1327.5</v>
+      </c>
+      <c r="C25" t="n">
+        <v>11.01</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.1527336090803147</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45686.47785</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1334.1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>10.12</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.017468656812395</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45686.4764761574</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1215.4</v>
+      </c>
+      <c r="C27" t="n">
+        <v>5.48</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.351742778505598</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45686.47774930556</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1325.4</v>
+      </c>
+      <c r="C28" t="n">
+        <v>7.74</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.320136904716493</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45686.47784768519</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1333.9</v>
+      </c>
+      <c r="C29" t="n">
+        <v>9.74</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.176302679947444</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Duża Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45686.49848310185</v>
+      </c>
+      <c r="B30" t="n">
+        <v>3116.8</v>
+      </c>
+      <c r="C30" t="n">
+        <v>11.21</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2.863635267530169</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45686.49921805556</v>
+      </c>
+      <c r="B31" t="n">
+        <v>3180.3</v>
+      </c>
+      <c r="C31" t="n">
+        <v>12.58</v>
+      </c>
+      <c r="D31" t="n">
+        <v>3.147737877709524</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45686.49984652777</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3234.6</v>
+      </c>
+      <c r="C32" t="n">
+        <v>10.43</v>
+      </c>
+      <c r="D32" t="n">
+        <v>2.74757923398699</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>10-15</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45686.49848078704</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3116.6</v>
+      </c>
+      <c r="C33" t="n">
+        <v>9.289999999999999</v>
+      </c>
+      <c r="D33" t="n">
+        <v>2.726489577974593</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45686.49921458333</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3180</v>
+      </c>
+      <c r="C34" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="D34" t="n">
+        <v>2.57119801214763</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45686.49984537037</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3234.5</v>
+      </c>
+      <c r="C35" t="n">
+        <v>9.56</v>
+      </c>
+      <c r="D35" t="n">
+        <v>2.716403859002249</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>5-10</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Mała Gra</t>
         </is>
       </c>
     </row>
